--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/special-offer-panelc.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/special-offer-panelc.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23627"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{36EA0862-469A-4339-A87C-A9C5117F3B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{97BFA082-68DC-44A5-8036-780D4A5C7C04}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{36EA0862-469A-4339-A87C-A9C5117F3B08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E9064646-41E2-4B79-8B03-5F4A8EC977D8}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1273,7 +1273,7 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2227,28 +2227,13 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{E0E636BC-7775-4B69-82BD-0C10E2AAB82D}"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://www.meaningfulbeauty.com/en_us/campaign/special-offer/" xr:uid="{DDBA0F72-BC41-4D29-97E4-EA664AF3A2C1}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{DDBA0F72-BC41-4D29-97E4-EA664AF3A2C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -2413,8 +2398,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86F5D631-A150-4668-A8EB-947DB3A2A4E8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187F77C-E3B1-4B81-88C3-5890496FD075}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2422,5 +2422,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187F77C-E3B1-4B81-88C3-5890496FD075}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86F5D631-A150-4668-A8EB-947DB3A2A4E8}"/>
 </file>